--- a/Base_Simulador.xlsx
+++ b/Base_Simulador.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.silva\Desktop\Simulador G10 e S10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2565E973-84BC-47D3-A419-03A4CF680273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19875" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
   <si>
     <t>KPI1</t>
   </si>
@@ -52,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,21 +110,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>34190824.967304297</v>
+        <v>37295522.8280381</v>
       </c>
       <c r="D2">
-        <v>2082005.1218000001</v>
+        <v>2079127.5592</v>
       </c>
       <c r="E2">
-        <v>1.1467955003797921</v>
+        <v>1.143160642404432</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -470,19 +452,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>35847231.528220497</v>
+        <v>27698016.04211479</v>
       </c>
       <c r="D3">
-        <v>953798.01240000001</v>
+        <v>953518.6374</v>
       </c>
       <c r="E3">
-        <v>1.3349710255962779</v>
+        <v>1.334132784153791</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -490,19 +472,19 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>12324191.24849242</v>
+        <v>42350625.85595842</v>
       </c>
       <c r="D4">
-        <v>588617.67070000002</v>
+        <v>579112.3172</v>
       </c>
       <c r="E4">
-        <v>1.5852743660993169</v>
+        <v>0.9326045483587443</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -510,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>19452052.58591333</v>
+        <v>20642412.81259432</v>
       </c>
       <c r="D5">
-        <v>532334.89760000003</v>
+        <v>532334.8976</v>
       </c>
       <c r="E5">
         <v>1.435457387134387</v>
@@ -522,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -530,19 +512,19 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>32579305.302052818</v>
+        <v>11974873.65231391</v>
       </c>
       <c r="D6">
-        <v>580239.12970000005</v>
+        <v>588617.6707</v>
       </c>
       <c r="E6">
-        <v>0.93617938347671203</v>
+        <v>1.585274366099317</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,19 +532,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>17627405.799239598</v>
+        <v>18585773.32008197</v>
       </c>
       <c r="D7">
-        <v>707092.88540000003</v>
+        <v>707092.8854</v>
       </c>
       <c r="E7">
-        <v>1.1655438530373059</v>
+        <v>1.165543853037306</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -570,39 +552,39 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-3170024.6066648401</v>
+        <v>12813340.83194003</v>
       </c>
       <c r="D8">
-        <v>1024717.3583</v>
+        <v>488420.4384</v>
       </c>
       <c r="E8">
+        <v>1.107455968128321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>-2332214.77251114</v>
+      </c>
+      <c r="D9">
+        <v>646447.4702999999</v>
+      </c>
+      <c r="E9">
         <v>1.203658177418522</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>11471512.03773489</v>
-      </c>
-      <c r="D9">
-        <v>489426.18839999998</v>
-      </c>
-      <c r="E9">
-        <v>1.111145240216368</v>
-      </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -610,10 +592,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6228179.9720934005</v>
+        <v>3845523.28979552</v>
       </c>
       <c r="D10">
-        <v>601629.74210000003</v>
+        <v>601629.7421</v>
       </c>
       <c r="E10">
         <v>1.069559966098939</v>
@@ -622,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -630,19 +612,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>3559867.0528391302</v>
+        <v>7956602.90971165</v>
       </c>
       <c r="D11">
-        <v>461080.85330000002</v>
+        <v>471119.4442</v>
       </c>
       <c r="E11">
-        <v>1.1141380257686031</v>
+        <v>0.8996221321285831</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -650,19 +632,19 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>9881944.64987351</v>
+        <v>9818633.170943379</v>
       </c>
       <c r="D12">
-        <v>289681.44290000002</v>
+        <v>289681.4429</v>
       </c>
       <c r="E12">
-        <v>0.94225536509914998</v>
+        <v>0.94225536509915</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -670,19 +652,19 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>9244653.2618857808</v>
+        <v>10563723.12468949</v>
       </c>
       <c r="D13">
-        <v>353001.03759999998</v>
+        <v>351175.7876</v>
       </c>
       <c r="E13">
-        <v>0.87943953937485997</v>
+        <v>0.8705926321082113</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -690,19 +672,19 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>6321412.9197939299</v>
+        <v>226409.2555486301</v>
       </c>
       <c r="D14">
-        <v>473117.58159999998</v>
+        <v>362521.7347</v>
       </c>
       <c r="E14">
-        <v>0.79790530604597587</v>
+        <v>1.111626922823916</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -710,19 +692,19 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>9284662.2212075498</v>
+        <v>8906341.006209031</v>
       </c>
       <c r="D15">
-        <v>358052.95980000001</v>
+        <v>358052.9598</v>
       </c>
       <c r="E15">
-        <v>0.81406284092716874</v>
+        <v>0.8140628409271687</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -730,19 +712,19 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>16897437.752339952</v>
+        <v>2771541.98212535</v>
       </c>
       <c r="D16">
-        <v>291130.47879999998</v>
+        <v>473050.6745</v>
       </c>
       <c r="E16">
-        <v>0.56347206629170055</v>
+        <v>0.7976995758653271</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -750,19 +732,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>1791067.0441336799</v>
+        <v>3423361.176809271</v>
       </c>
       <c r="D17">
-        <v>419812.5906</v>
+        <v>469852.9539</v>
       </c>
       <c r="E17">
-        <v>0.82865732169019812</v>
+        <v>0.7212107709167317</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -770,19 +752,19 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>4082980.382863461</v>
+        <v>4370320.14303406</v>
       </c>
       <c r="D18">
-        <v>469852.95390000002</v>
+        <v>378435.0777</v>
       </c>
       <c r="E18">
-        <v>0.72121077091673169</v>
+        <v>0.7423315464516009</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -790,19 +772,19 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>3395941.5866110199</v>
+        <v>-2110094.25113765</v>
       </c>
       <c r="D19">
-        <v>378435.07770000002</v>
+        <v>419477.3406</v>
       </c>
       <c r="E19">
-        <v>0.74233154645160093</v>
+        <v>0.8273989183683863</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -810,19 +792,19 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>-385425.58216295007</v>
+        <v>11285015.74443222</v>
       </c>
       <c r="D20">
-        <v>346372.89569999999</v>
+        <v>290497.2288</v>
       </c>
       <c r="E20">
-        <v>0.76270864104656111</v>
+        <v>0.5609935708613891</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -830,19 +812,19 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>6229553.2788785687</v>
+        <v>14750722.19941691</v>
       </c>
       <c r="D21">
-        <v>512762.85859999998</v>
+        <v>227626.5645</v>
       </c>
       <c r="E21">
-        <v>0.44350338875312062</v>
+        <v>0.4522137930058182</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -850,19 +832,19 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>4094464.4377969601</v>
+        <v>-1255538.20272071</v>
       </c>
       <c r="D22">
-        <v>185184.05990000011</v>
+        <v>346372.8957</v>
       </c>
       <c r="E22">
-        <v>0.74926120739859303</v>
+        <v>0.7627086410465611</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -870,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>13813640.018759871</v>
+        <v>5261553.751502669</v>
       </c>
       <c r="D23">
-        <v>227626.56450000001</v>
+        <v>512762.8586</v>
       </c>
       <c r="E23">
-        <v>0.45221379300581821</v>
+        <v>0.4435033887531206</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -890,19 +872,19 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>3020095.5569536402</v>
+        <v>8093520.22127081</v>
       </c>
       <c r="D24">
-        <v>208286.3737</v>
+        <v>167874.6496</v>
       </c>
       <c r="E24">
-        <v>0.73078892195269451</v>
+        <v>0.5603051659935695</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -910,19 +892,19 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-687349.91865195893</v>
+        <v>4245361.35981866</v>
       </c>
       <c r="D25">
-        <v>248079.41500000001</v>
+        <v>112993.328</v>
       </c>
       <c r="E25">
-        <v>0.78226516822052616</v>
+        <v>0.6173978169430975</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -930,19 +912,19 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>-526043.28377237008</v>
+        <v>981089.60758461</v>
       </c>
       <c r="D26">
-        <v>175911.68979999999</v>
+        <v>97727.8854</v>
       </c>
       <c r="E26">
-        <v>0.74947001295968774</v>
+        <v>0.6122785195674429</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -950,490 +932,490 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>296713.47667260002</v>
+        <v>872707.3691580899</v>
       </c>
       <c r="D27">
-        <v>124694.74830000001</v>
+        <v>129559.7066</v>
       </c>
       <c r="E27">
-        <v>0.58338840097259859</v>
+        <v>0.5001604920684281</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>3631855.0099200201</v>
+        <v>5708341.10354365</v>
       </c>
       <c r="D28">
-        <v>117584.6434</v>
+        <v>222349.5109</v>
       </c>
       <c r="E28">
-        <v>0.48676374701372349</v>
+        <v>3.398801244443564</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>-13320497.25240425</v>
+        <v>6921228.84142112</v>
       </c>
       <c r="D29">
-        <v>401496.04950000002</v>
+        <v>287428.7835</v>
       </c>
       <c r="E29">
-        <v>0.62305280493092974</v>
+        <v>1.926082467955375</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>4661731.6901037404</v>
+        <v>10358098.91250375</v>
       </c>
       <c r="D30">
-        <v>143835.94089999999</v>
+        <v>224023.4716</v>
       </c>
       <c r="E30">
-        <v>0.31429361375120091</v>
+        <v>1.293612829642218</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>-854115.46349176997</v>
+        <v>13066339.54977054</v>
       </c>
       <c r="D31">
-        <v>153645.5392</v>
+        <v>168140.0377</v>
       </c>
       <c r="E31">
-        <v>0.32517387454805852</v>
+        <v>0.5444321089620804</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>14555568.284912121</v>
+        <v>11630657.15935452</v>
       </c>
       <c r="D32">
-        <v>759250.9632</v>
+        <v>160823.4912</v>
       </c>
       <c r="E32">
-        <v>1.1140885765177859</v>
+        <v>0.680632903543569</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>5900211.2539394004</v>
+        <v>2883353.40340815</v>
       </c>
       <c r="D33">
-        <v>223131.76089999999</v>
+        <v>460689.7283</v>
       </c>
       <c r="E33">
-        <v>3.4209296770694388</v>
+        <v>1.110843011473391</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>11391812.78342415</v>
+        <v>4343923.02732916</v>
       </c>
       <c r="D34">
-        <v>471119.44420000003</v>
+        <v>260262.5614</v>
       </c>
       <c r="E34">
-        <v>0.89962213212858311</v>
+        <v>1.364857876425458</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>14079961.73448495</v>
+        <v>2808170.718017089</v>
       </c>
       <c r="D35">
-        <v>163544.94680000001</v>
+        <v>341402.6153</v>
       </c>
       <c r="E35">
-        <v>0.87579563055354448</v>
+        <v>1.290465876401289</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>11090130.03661105</v>
+        <v>11282383.49850191</v>
       </c>
       <c r="D36">
-        <v>224023.47159999999</v>
+        <v>53962.0108</v>
       </c>
       <c r="E36">
-        <v>1.293612829642218</v>
+        <v>0.354922268011376</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>12841675.40721428</v>
+        <v>9043033.151283171</v>
       </c>
       <c r="D37">
-        <v>168140.03769999999</v>
+        <v>69154.4112</v>
       </c>
       <c r="E37">
-        <v>0.54443210896208039</v>
+        <v>0.7670212005667607</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>6936779.6482226606</v>
+        <v>9599109.71883026</v>
       </c>
       <c r="D38">
-        <v>287428.78350000002</v>
+        <v>103605.3617</v>
       </c>
       <c r="E38">
-        <v>1.926082467955375</v>
+        <v>0.4205733726371847</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>11659301.887010621</v>
+        <v>3545260.48505197</v>
       </c>
       <c r="D39">
-        <v>160823.49119999999</v>
+        <v>128603.8977</v>
       </c>
       <c r="E39">
-        <v>0.68063290354356898</v>
+        <v>1.763316592920096</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>5288890.7492488697</v>
+        <v>9202668.210803971</v>
       </c>
       <c r="D40">
-        <v>260495.37390000001</v>
+        <v>59734.22530000001</v>
       </c>
       <c r="E40">
-        <v>1.368037947372456</v>
+        <v>0.5824849510179394</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>8700173.1223293692</v>
+        <v>-92842.60252274002</v>
       </c>
       <c r="D41">
-        <v>69154.411200000002</v>
+        <v>185405.5803</v>
       </c>
       <c r="E41">
-        <v>0.76702120056676071</v>
+        <v>2.285273970981408</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>7897563.9195757005</v>
+        <v>5047313.425314769</v>
       </c>
       <c r="D42">
-        <v>167874.6496</v>
+        <v>130524.043</v>
       </c>
       <c r="E42">
-        <v>0.5603051659935695</v>
+        <v>1.119727651747991</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43">
-        <v>5542417.1688898401</v>
+        <v>3781121.24409286</v>
       </c>
       <c r="D43">
-        <v>128067.0349</v>
+        <v>143295.0833</v>
       </c>
       <c r="E43">
-        <v>1.063584060270397</v>
+        <v>1.124902781664534</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>3296435.4742259402</v>
+        <v>4151308.68226006</v>
       </c>
       <c r="D44">
-        <v>128603.8977</v>
+        <v>127158.4238999999</v>
       </c>
       <c r="E44">
-        <v>1.763316592920096</v>
+        <v>0.9211621506353748</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>1076323.49972119</v>
+        <v>6191263.178944809</v>
       </c>
       <c r="D45">
-        <v>185405.5803</v>
+        <v>102362.4793</v>
       </c>
       <c r="E45">
-        <v>2.2852739709814078</v>
+        <v>0.4642869369763955</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>7610525.7579204496</v>
+        <v>3404378.1122912</v>
       </c>
       <c r="D46">
-        <v>59734.225300000013</v>
+        <v>103638.0698</v>
       </c>
       <c r="E46">
-        <v>0.5824849510179394</v>
+        <v>1.144658428337205</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>3929876.2559992098</v>
+        <v>3018268.463247369</v>
       </c>
       <c r="D47">
-        <v>143853.8333</v>
+        <v>208286.3737</v>
       </c>
       <c r="E47">
-        <v>1.1337918468233701</v>
+        <v>0.7307889219526945</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48">
-        <v>4057180.3283417402</v>
+        <v>3996503.34173483</v>
       </c>
       <c r="D48">
-        <v>103861.5698</v>
+        <v>101132.8347</v>
       </c>
       <c r="E48">
-        <v>1.1494876119545929</v>
+        <v>0.7176612837221273</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>4614492.01645396</v>
+        <v>4559966.95673503</v>
       </c>
       <c r="D49">
-        <v>112993.32799999999</v>
+        <v>126725.0378</v>
       </c>
       <c r="E49">
-        <v>0.61739781694309748</v>
+        <v>0.405322823828676</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50">
-        <v>3984128.8561289199</v>
+        <v>-2392435.47746231</v>
       </c>
       <c r="D50">
-        <v>102362.47930000001</v>
+        <v>233985.7511</v>
       </c>
       <c r="E50">
-        <v>0.4642869369763955</v>
+        <v>1.577794326540978</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51">
-        <v>4079591.3967131502</v>
+        <v>4813433.39865068</v>
       </c>
       <c r="D51">
-        <v>71303.411699999997</v>
+        <v>71303.4117</v>
       </c>
       <c r="E51">
         <v>0.5226919260304973</v>
@@ -1442,423 +1424,383 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>-597815.40096533997</v>
+        <v>2932150.36630317</v>
       </c>
       <c r="D52">
-        <v>362521.73469999997</v>
+        <v>109411.1862</v>
       </c>
       <c r="E52">
-        <v>1.111626922823916</v>
+        <v>0.7202672036868368</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>2324729.7261532</v>
+        <v>1033216.96525529</v>
       </c>
       <c r="D53">
-        <v>109411.1862</v>
+        <v>104928.1761</v>
       </c>
       <c r="E53">
-        <v>0.72026720368683683</v>
+        <v>0.855087411175525</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54">
-        <v>4658512.1365368897</v>
+        <v>3895524.8431382</v>
       </c>
       <c r="D54">
+        <v>43818.9874</v>
+      </c>
+      <c r="E54">
+        <v>0.3521777999843033</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>-280518.12592874</v>
+      </c>
+      <c r="D55">
+        <v>175911.6898</v>
+      </c>
+      <c r="E55">
+        <v>0.7494700129596877</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>-304725.79811</v>
+      </c>
+      <c r="D56">
+        <v>62479.8176</v>
+      </c>
+      <c r="E56">
+        <v>1.222298816272701</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>1773651.04363011</v>
+      </c>
+      <c r="D57">
+        <v>92183.72640000001</v>
+      </c>
+      <c r="E57">
+        <v>0.4924882715128144</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>3554679.73256699</v>
+      </c>
+      <c r="D58">
+        <v>21526.9522</v>
+      </c>
+      <c r="E58">
+        <v>0.3279712427048231</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>3830818.79600527</v>
+      </c>
+      <c r="D59">
         <v>14396.64159999999</v>
       </c>
-      <c r="E54">
+      <c r="E59">
         <v>0.2306853584348024</v>
       </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>2169223.5073286798</v>
-      </c>
-      <c r="D55">
-        <v>101132.83470000001</v>
-      </c>
-      <c r="E55">
-        <v>0.71766128372212734</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>1611882.45115548</v>
-      </c>
-      <c r="D56">
-        <v>56170.435700000002</v>
-      </c>
-      <c r="E56">
-        <v>0.90015575214899202</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>-2305093.6645873301</v>
-      </c>
-      <c r="D57">
-        <v>234432.75109999999</v>
-      </c>
-      <c r="E57">
-        <v>1.5832270519411049</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>27</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>2408167.7559347712</v>
-      </c>
-      <c r="D58">
-        <v>103260.1661</v>
-      </c>
-      <c r="E58">
-        <v>0.37574099974592351</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>3180361.46732033</v>
-      </c>
-      <c r="D59">
-        <v>21526.9522</v>
-      </c>
-      <c r="E59">
-        <v>0.32797124270482308</v>
-      </c>
       <c r="F59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>1882391.14104248</v>
+        <v>315918.67877786</v>
       </c>
       <c r="D60">
-        <v>87806.425000000105</v>
+        <v>124694.7483</v>
       </c>
       <c r="E60">
-        <v>0.49881332367173681</v>
+        <v>0.5833884009725986</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61">
-        <v>534325.49090255005</v>
+        <v>-508125.54610176</v>
       </c>
       <c r="D61">
-        <v>104928.1761</v>
+        <v>78310.43300000011</v>
       </c>
       <c r="E61">
-        <v>0.855087411175525</v>
+        <v>0.887275347012935</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>1727027.2087927901</v>
+        <v>1509543.01665932</v>
       </c>
       <c r="D62">
-        <v>92183.726400000014</v>
+        <v>55711.1794</v>
       </c>
       <c r="E62">
-        <v>0.49248827151281438</v>
+        <v>0.4820326573783725</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>347849.52956885012</v>
+        <v>-373215.4114551401</v>
       </c>
       <c r="D63">
-        <v>129559.7066</v>
+        <v>87806.4250000001</v>
       </c>
       <c r="E63">
-        <v>0.50016049206842805</v>
+        <v>0.4988133236717368</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64">
-        <v>-405459.41962285002</v>
+        <v>1605237.68</v>
       </c>
       <c r="D64">
-        <v>78310.433000000106</v>
+        <v>13949.5846</v>
       </c>
       <c r="E64">
-        <v>0.88727534701293498</v>
+        <v>0.3080139388167712</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>1412943.2769269401</v>
+        <v>-446975.135538169</v>
       </c>
       <c r="D65">
-        <v>43818.987399999998</v>
+        <v>56920.1812</v>
       </c>
       <c r="E65">
-        <v>0.35217779998430332</v>
+        <v>0.3374529798017735</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1618384.5963113001</v>
+        <v>-676938.71637527</v>
       </c>
       <c r="D66">
-        <v>13949.5846</v>
+        <v>45085.6458</v>
       </c>
       <c r="E66">
-        <v>0.30801393881677119</v>
+        <v>0.4163273267587476</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67">
-        <v>642750.13740259001</v>
+        <v>-974414.9399944399</v>
       </c>
       <c r="D67">
-        <v>55711.179400000001</v>
+        <v>25719.784</v>
       </c>
       <c r="E67">
-        <v>0.48203265737837248</v>
+        <v>0.4774685785128609</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68">
-        <v>815906.93550469005</v>
+        <v>675129.62218225</v>
       </c>
       <c r="D68">
-        <v>2214.5470999999998</v>
+        <v>2214.5471</v>
       </c>
       <c r="E68">
-        <v>0.11400022050251719</v>
+        <v>0.1140002205025172</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69">
-        <v>-888737.27421834995</v>
+        <v>-1248533.26424825</v>
       </c>
       <c r="D69">
-        <v>45085.645799999998</v>
+        <v>1296.8895</v>
       </c>
       <c r="E69">
-        <v>0.41632732675874762</v>
+        <v>0.04521266592036469</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70">
-        <v>-974414.93999443995</v>
+        <v>-8854984.52925604</v>
       </c>
       <c r="D70">
-        <v>25719.784</v>
+        <v>56371.3038</v>
       </c>
       <c r="E70">
-        <v>0.4774685785128609</v>
+        <v>0.4664170939488196</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>40</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71">
-        <v>140365.91768923</v>
-      </c>
-      <c r="D71">
-        <v>1296.8895</v>
-      </c>
-      <c r="E71">
-        <v>4.5212665920364693E-2</v>
-      </c>
-      <c r="F71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>41</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72">
-        <v>-3271650.428470403</v>
-      </c>
-      <c r="D72">
-        <v>82379.53839999999</v>
-      </c>
-      <c r="E72">
-        <v>0.37909600820086742</v>
-      </c>
-      <c r="F72" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Base_Simulador.xlsx
+++ b/Base_Simulador.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="9">
   <si>
     <t>KPI1</t>
   </si>
@@ -40,7 +40,7 @@
     <t>S10</t>
   </si>
   <si>
-    <t>01</t>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>37295522.8280381</v>
+        <v>63303229.7287195</v>
       </c>
       <c r="D2">
-        <v>2079127.5592</v>
+        <v>3275771.86552</v>
       </c>
       <c r="E2">
-        <v>1.143160642404432</v>
+        <v>1.281181834291601</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -452,13 +452,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>27698016.04211479</v>
+        <v>33057993.37935202</v>
       </c>
       <c r="D3">
-        <v>953518.6374</v>
+        <v>767685.91084</v>
       </c>
       <c r="E3">
-        <v>1.334132784153791</v>
+        <v>1.336798273424851</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>42350625.85595842</v>
+        <v>22489580.95015856</v>
       </c>
       <c r="D4">
-        <v>579112.3172</v>
+        <v>1047140.12162</v>
       </c>
       <c r="E4">
-        <v>0.9326045483587443</v>
+        <v>1.236837999438199</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>20642412.81259432</v>
+        <v>49292733.54829281</v>
       </c>
       <c r="D5">
-        <v>532334.8976</v>
+        <v>847470.5890599999</v>
       </c>
       <c r="E5">
-        <v>1.435457387134387</v>
+        <v>0.8800873101302531</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -512,13 +512,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>11974873.65231391</v>
+        <v>12582444.55397776</v>
       </c>
       <c r="D6">
-        <v>588617.6707</v>
+        <v>800985.55204</v>
       </c>
       <c r="E6">
-        <v>1.585274366099317</v>
+        <v>1.268947678775149</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>18585773.32008197</v>
+        <v>17570049.75563476</v>
       </c>
       <c r="D7">
-        <v>707092.8854</v>
+        <v>662384.68482</v>
       </c>
       <c r="E7">
-        <v>1.165543853037306</v>
+        <v>1.217097668433874</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12813340.83194003</v>
+        <v>2376132.64995402</v>
       </c>
       <c r="D8">
-        <v>488420.4384</v>
+        <v>1136381.98932</v>
       </c>
       <c r="E8">
-        <v>1.107455968128321</v>
+        <v>1.092311762440836</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -572,13 +572,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-2332214.77251114</v>
+        <v>18358119.13038474</v>
       </c>
       <c r="D9">
-        <v>646447.4702999999</v>
+        <v>703320.2784</v>
       </c>
       <c r="E9">
-        <v>1.203658177418522</v>
+        <v>0.9352270645310105</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -592,13 +592,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3845523.28979552</v>
+        <v>923021.7282778802</v>
       </c>
       <c r="D10">
-        <v>601629.7421</v>
+        <v>562752.0350200001</v>
       </c>
       <c r="E10">
-        <v>1.069559966098939</v>
+        <v>1.16020004155833</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -612,13 +612,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>7956602.90971165</v>
+        <v>3048690.84205608</v>
       </c>
       <c r="D11">
-        <v>471119.4442</v>
+        <v>886825.22572</v>
       </c>
       <c r="E11">
-        <v>0.8996221321285831</v>
+        <v>0.9711389855607241</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -632,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>9818633.170943379</v>
+        <v>2007927.16253755</v>
       </c>
       <c r="D12">
-        <v>289681.4429</v>
+        <v>852254.057</v>
       </c>
       <c r="E12">
-        <v>0.94225536509915</v>
+        <v>0.9388833051110395</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -652,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>10563723.12468949</v>
+        <v>12174494.31248722</v>
       </c>
       <c r="D13">
-        <v>351175.7876</v>
+        <v>589444.6011399999</v>
       </c>
       <c r="E13">
-        <v>0.8705926321082113</v>
+        <v>0.8569143934905148</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -672,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>226409.2555486301</v>
+        <v>2718332.15866442</v>
       </c>
       <c r="D14">
-        <v>362521.7347</v>
+        <v>689008.5508600001</v>
       </c>
       <c r="E14">
-        <v>1.111626922823916</v>
+        <v>0.9072904205084488</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -692,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>8906341.006209031</v>
+        <v>11605994.87487922</v>
       </c>
       <c r="D15">
-        <v>358052.9598</v>
+        <v>492715.4778000001</v>
       </c>
       <c r="E15">
-        <v>0.8140628409271687</v>
+        <v>0.7679303640540924</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -712,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>2771541.98212535</v>
+        <v>-1644378.0951156</v>
       </c>
       <c r="D16">
-        <v>473050.6745</v>
+        <v>705348.57522</v>
       </c>
       <c r="E16">
-        <v>0.7976995758653271</v>
+        <v>0.8430370277030449</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -732,13 +732,13 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>3423361.176809271</v>
+        <v>3656973.491225811</v>
       </c>
       <c r="D17">
-        <v>469852.9539</v>
+        <v>678296.50384</v>
       </c>
       <c r="E17">
-        <v>0.7212107709167317</v>
+        <v>0.6824765571747432</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -752,13 +752,13 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>4370320.14303406</v>
+        <v>18594101.36200559</v>
       </c>
       <c r="D18">
-        <v>378435.0777</v>
+        <v>417496.6486</v>
       </c>
       <c r="E18">
-        <v>0.7423315464516009</v>
+        <v>0.5219717867545001</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -772,13 +772,13 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>-2110094.25113765</v>
+        <v>-5540950.23888026</v>
       </c>
       <c r="D19">
-        <v>419477.3406</v>
+        <v>530383.5872600001</v>
       </c>
       <c r="E19">
-        <v>0.8273989183683863</v>
+        <v>0.8037145936540587</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>11285015.74443222</v>
+        <v>17878306.89121757</v>
       </c>
       <c r="D20">
-        <v>290497.2288</v>
+        <v>687986.74792</v>
       </c>
       <c r="E20">
-        <v>0.5609935708613891</v>
+        <v>0.3645457924956545</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -812,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>14750722.19941691</v>
+        <v>-7047696.741961029</v>
       </c>
       <c r="D21">
-        <v>227626.5645</v>
+        <v>669681.5141199999</v>
       </c>
       <c r="E21">
-        <v>0.4522137930058182</v>
+        <v>0.691801397492564</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -832,13 +832,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>-1255538.20272071</v>
+        <v>9829478.399872379</v>
       </c>
       <c r="D22">
-        <v>346372.8957</v>
+        <v>271197.93388</v>
       </c>
       <c r="E22">
-        <v>0.7627086410465611</v>
+        <v>0.6142858353691709</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>5261553.751502669</v>
+        <v>17507978.13776451</v>
       </c>
       <c r="D23">
-        <v>512762.8586</v>
+        <v>306593.28812</v>
       </c>
       <c r="E23">
-        <v>0.4435033887531206</v>
+        <v>0.3826870690142942</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -872,13 +872,13 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>8093520.22127081</v>
+        <v>-765300.8262795901</v>
       </c>
       <c r="D24">
-        <v>167874.6496</v>
+        <v>231882.90282</v>
       </c>
       <c r="E24">
-        <v>0.5603051659935695</v>
+        <v>0.5900174693266004</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -892,13 +892,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>4245361.35981866</v>
+        <v>-373704.4699765402</v>
       </c>
       <c r="D25">
-        <v>112993.328</v>
+        <v>198030.4687</v>
       </c>
       <c r="E25">
-        <v>0.6173978169430975</v>
+        <v>0.5864723462208049</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -906,19 +906,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>981089.60758461</v>
+        <v>13489145.32044723</v>
       </c>
       <c r="D26">
-        <v>97727.8854</v>
+        <v>291185.97098</v>
       </c>
       <c r="E26">
-        <v>0.6122785195674429</v>
+        <v>2.637366192018744</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -926,19 +926,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>872707.3691580899</v>
+        <v>14712909.7018976</v>
       </c>
       <c r="D27">
-        <v>129559.7066</v>
+        <v>227594.5552</v>
       </c>
       <c r="E27">
-        <v>0.5001604920684281</v>
+        <v>2.196524907744539</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -946,19 +946,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>5708341.10354365</v>
+        <v>8728495.87136304</v>
       </c>
       <c r="D28">
-        <v>222349.5109</v>
+        <v>467867.71326</v>
       </c>
       <c r="E28">
-        <v>3.398801244443564</v>
+        <v>2.07228384523996</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -966,19 +966,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>6921228.84142112</v>
+        <v>8044225.185109761</v>
       </c>
       <c r="D29">
-        <v>287428.7835</v>
+        <v>369050.6434</v>
       </c>
       <c r="E29">
-        <v>1.926082467955375</v>
+        <v>2.305369189268528</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -986,19 +986,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>10358098.91250375</v>
+        <v>18935814.65270587</v>
       </c>
       <c r="D30">
-        <v>224023.4716</v>
+        <v>213602.15592</v>
       </c>
       <c r="E30">
-        <v>1.293612829642218</v>
+        <v>1.024070404013766</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1006,19 +1006,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>13066339.54977054</v>
+        <v>11584108.82866268</v>
       </c>
       <c r="D31">
-        <v>168140.0377</v>
+        <v>354293.08962</v>
       </c>
       <c r="E31">
-        <v>0.5444321089620804</v>
+        <v>1.389003578219574</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1026,19 +1026,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>11630657.15935452</v>
+        <v>18520005.68719498</v>
       </c>
       <c r="D32">
-        <v>160823.4912</v>
+        <v>99889.14922000001</v>
       </c>
       <c r="E32">
-        <v>0.680632903543569</v>
+        <v>0.6067699386875021</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1046,19 +1046,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>2883353.40340815</v>
+        <v>6459462.04616967</v>
       </c>
       <c r="D33">
-        <v>460689.7283</v>
+        <v>209925.6487</v>
       </c>
       <c r="E33">
-        <v>1.110843011473391</v>
+        <v>1.888576360689048</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1066,19 +1066,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>4343923.02732916</v>
+        <v>13321037.68587219</v>
       </c>
       <c r="D34">
-        <v>260262.5614</v>
+        <v>261302.4395</v>
       </c>
       <c r="E34">
-        <v>1.364857876425458</v>
+        <v>0.6252908859790862</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1086,19 +1086,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>2808170.718017089</v>
+        <v>3230205.070111</v>
       </c>
       <c r="D35">
-        <v>341402.6153</v>
+        <v>563658.91316</v>
       </c>
       <c r="E35">
-        <v>1.290465876401289</v>
+        <v>0.967702479031714</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1106,19 +1106,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>11282383.49850191</v>
+        <v>11726608.93054077</v>
       </c>
       <c r="D36">
-        <v>53962.0108</v>
+        <v>219184.0146</v>
       </c>
       <c r="E36">
-        <v>0.354922268011376</v>
+        <v>0.6232265304867465</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1126,19 +1126,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>9043033.151283171</v>
+        <v>13309312.21676077</v>
       </c>
       <c r="D37">
-        <v>69154.4112</v>
+        <v>175375.28432</v>
       </c>
       <c r="E37">
-        <v>0.7670212005667607</v>
+        <v>0.5079907880676259</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -1146,19 +1146,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>9599109.71883026</v>
+        <v>9285544.95132879</v>
       </c>
       <c r="D38">
-        <v>103605.3617</v>
+        <v>187911.28502</v>
       </c>
       <c r="E38">
-        <v>0.4205733726371847</v>
+        <v>0.9789345907970456</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -1166,19 +1166,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>3545260.48505197</v>
+        <v>2893066.278962529</v>
       </c>
       <c r="D39">
-        <v>128603.8977</v>
+        <v>451719.01952</v>
       </c>
       <c r="E39">
-        <v>1.763316592920096</v>
+        <v>1.041676208851097</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -1186,19 +1186,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>9202668.210803971</v>
+        <v>9389291.414561858</v>
       </c>
       <c r="D40">
-        <v>59734.22530000001</v>
+        <v>195878.37404</v>
       </c>
       <c r="E40">
-        <v>0.5824849510179394</v>
+        <v>0.5802524143238259</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -1206,19 +1206,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>-92842.60252274002</v>
+        <v>10368117.07472603</v>
       </c>
       <c r="D41">
-        <v>185405.5803</v>
+        <v>166296.50794</v>
       </c>
       <c r="E41">
-        <v>2.285273970981408</v>
+        <v>0.5137992268681636</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>5047313.425314769</v>
+        <v>6532155.5659352</v>
       </c>
       <c r="D42">
-        <v>130524.043</v>
+        <v>287135.7157</v>
       </c>
       <c r="E42">
-        <v>1.119727651747991</v>
+        <v>0.6712909982918009</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -1246,19 +1246,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43">
-        <v>3781121.24409286</v>
+        <v>3366472.69200265</v>
       </c>
       <c r="D43">
-        <v>143295.0833</v>
+        <v>210084.34216</v>
       </c>
       <c r="E43">
-        <v>1.124902781664534</v>
+        <v>1.357216084003457</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -1266,19 +1266,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>4151308.68226006</v>
+        <v>5028642.978653381</v>
       </c>
       <c r="D44">
-        <v>127158.4238999999</v>
+        <v>165808.15252</v>
       </c>
       <c r="E44">
-        <v>0.9211621506353748</v>
+        <v>1.227389039688753</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -1286,19 +1286,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>6191263.178944809</v>
+        <v>11042514.69594078</v>
       </c>
       <c r="D45">
-        <v>102362.4793</v>
+        <v>91586.87714</v>
       </c>
       <c r="E45">
-        <v>0.4642869369763955</v>
+        <v>0.5770982673561647</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -1306,19 +1306,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>3404378.1122912</v>
+        <v>7526034.4208702</v>
       </c>
       <c r="D46">
-        <v>103638.0698</v>
+        <v>164258.12834</v>
       </c>
       <c r="E46">
-        <v>1.144658428337205</v>
+        <v>0.6399281474590136</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -1326,19 +1326,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>3018268.463247369</v>
+        <v>4733686.60881041</v>
       </c>
       <c r="D47">
-        <v>208286.3737</v>
+        <v>186535.7169</v>
       </c>
       <c r="E47">
-        <v>0.7307889219526945</v>
+        <v>0.8943122787531069</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -1346,19 +1346,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48">
-        <v>3996503.34173483</v>
+        <v>6736799.783949031</v>
       </c>
       <c r="D48">
-        <v>101132.8347</v>
+        <v>109225.15632</v>
       </c>
       <c r="E48">
-        <v>0.7176612837221273</v>
+        <v>0.5157374107778677</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -1366,19 +1366,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>4559966.95673503</v>
+        <v>7286188.88883882</v>
       </c>
       <c r="D49">
-        <v>126725.0378</v>
+        <v>92819.88252</v>
       </c>
       <c r="E49">
-        <v>0.405322823828676</v>
+        <v>0.3868985696623827</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -1386,19 +1386,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50">
-        <v>-2392435.47746231</v>
+        <v>1558049.88885061</v>
       </c>
       <c r="D50">
-        <v>233985.7511</v>
+        <v>205142.12182</v>
       </c>
       <c r="E50">
-        <v>1.577794326540978</v>
+        <v>0.6896580695138294</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -1406,19 +1406,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51">
-        <v>4813433.39865068</v>
+        <v>-704226.242735381</v>
       </c>
       <c r="D51">
-        <v>71303.4117</v>
+        <v>260413.7064</v>
       </c>
       <c r="E51">
-        <v>0.5226919260304973</v>
+        <v>0.6792604578319507</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>2932150.36630317</v>
+        <v>836083.8652552901</v>
       </c>
       <c r="D52">
-        <v>109411.1862</v>
+        <v>154801.3998</v>
       </c>
       <c r="E52">
-        <v>0.7202672036868368</v>
+        <v>0.7712223963511916</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -1446,19 +1446,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>1033216.96525529</v>
+        <v>4143099.60567513</v>
       </c>
       <c r="D53">
-        <v>104928.1761</v>
+        <v>83936.92606</v>
       </c>
       <c r="E53">
-        <v>0.855087411175525</v>
+        <v>0.4500874144749755</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -1466,19 +1466,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54">
-        <v>3895524.8431382</v>
+        <v>3976125.41149299</v>
       </c>
       <c r="D54">
-        <v>43818.9874</v>
+        <v>70769.62826</v>
       </c>
       <c r="E54">
-        <v>0.3521777999843033</v>
+        <v>0.3938390845677787</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -1486,19 +1486,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55">
-        <v>-280518.12592874</v>
+        <v>5279930.71633524</v>
       </c>
       <c r="D55">
-        <v>175911.6898</v>
+        <v>35479.8865</v>
       </c>
       <c r="E55">
-        <v>0.7494700129596877</v>
+        <v>0.291967778511136</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -1506,19 +1506,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56">
-        <v>-304725.79811</v>
+        <v>4149778.7</v>
       </c>
       <c r="D56">
-        <v>62479.8176</v>
+        <v>27706.9516</v>
       </c>
       <c r="E56">
-        <v>1.222298816272701</v>
+        <v>0.4756464266271163</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -1526,19 +1526,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>1773651.04363011</v>
+        <v>2209599.94132416</v>
       </c>
       <c r="D57">
-        <v>92183.72640000001</v>
+        <v>119641.01602</v>
       </c>
       <c r="E57">
-        <v>0.4924882715128144</v>
+        <v>0.3855031802806917</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -1546,19 +1546,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58">
-        <v>3554679.73256699</v>
+        <v>-11057508.27716127</v>
       </c>
       <c r="D58">
-        <v>21526.9522</v>
+        <v>335682.26242</v>
       </c>
       <c r="E58">
-        <v>0.3279712427048231</v>
+        <v>1.388123210010512</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -1566,19 +1566,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59">
-        <v>3830818.79600527</v>
+        <v>-1229969.40815011</v>
       </c>
       <c r="D59">
-        <v>14396.64159999999</v>
+        <v>78800.70126</v>
       </c>
       <c r="E59">
-        <v>0.2306853584348024</v>
+        <v>0.4909472150558225</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -1586,19 +1586,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>315918.67877786</v>
+        <v>-2481676.67788212</v>
       </c>
       <c r="D60">
-        <v>124694.7483</v>
+        <v>129026.83902</v>
       </c>
       <c r="E60">
-        <v>0.5833884009725986</v>
+        <v>0.4739171006514957</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -1606,19 +1606,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61">
-        <v>-508125.54610176</v>
+        <v>-804941.7738056401</v>
       </c>
       <c r="D61">
-        <v>78310.43300000011</v>
+        <v>64610.4497</v>
       </c>
       <c r="E61">
-        <v>0.887275347012935</v>
+        <v>0.4053362160576021</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -1626,19 +1626,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>1509543.01665932</v>
+        <v>-243026.2097009289</v>
       </c>
       <c r="D62">
-        <v>55711.1794</v>
+        <v>72033.93520000001</v>
       </c>
       <c r="E62">
-        <v>0.4820326573783725</v>
+        <v>0.2474119719889419</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>-373215.4114551401</v>
+        <v>-1226534.26999444</v>
       </c>
       <c r="D63">
-        <v>87806.4250000001</v>
+        <v>32558.6648</v>
       </c>
       <c r="E63">
-        <v>0.4988133236717368</v>
+        <v>0.3860615320491625</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -1666,19 +1666,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64">
-        <v>1605237.68</v>
+        <v>880241.89218225</v>
       </c>
       <c r="D64">
-        <v>13949.5846</v>
+        <v>3776.598</v>
       </c>
       <c r="E64">
-        <v>0.3080139388167712</v>
+        <v>0.1067379392423933</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>-446975.135538169</v>
+        <v>-1002613.8607675</v>
       </c>
       <c r="D65">
-        <v>56920.1812</v>
+        <v>2192.2898</v>
       </c>
       <c r="E65">
-        <v>0.3374529798017735</v>
+        <v>0.05052962631710662</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -1706,101 +1706,21 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>-676938.71637527</v>
+        <v>-9207653.78175604</v>
       </c>
       <c r="D66">
-        <v>45085.6458</v>
+        <v>112163.23242</v>
       </c>
       <c r="E66">
-        <v>0.4163273267587476</v>
+        <v>0.4578292354805442</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>40</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>-974414.9399944399</v>
-      </c>
-      <c r="D67">
-        <v>25719.784</v>
-      </c>
-      <c r="E67">
-        <v>0.4774685785128609</v>
-      </c>
-      <c r="F67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>41</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68">
-        <v>675129.62218225</v>
-      </c>
-      <c r="D68">
-        <v>2214.5471</v>
-      </c>
-      <c r="E68">
-        <v>0.1140002205025172</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>42</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69">
-        <v>-1248533.26424825</v>
-      </c>
-      <c r="D69">
-        <v>1296.8895</v>
-      </c>
-      <c r="E69">
-        <v>0.04521266592036469</v>
-      </c>
-      <c r="F69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>43</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70">
-        <v>-8854984.52925604</v>
-      </c>
-      <c r="D70">
-        <v>56371.3038</v>
-      </c>
-      <c r="E70">
-        <v>0.4664170939488196</v>
-      </c>
-      <c r="F70" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Base_Simulador.xlsx
+++ b/Base_Simulador.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="9">
   <si>
     <t>KPI1</t>
   </si>
@@ -40,7 +40,7 @@
     <t>S10</t>
   </si>
   <si>
-    <t>02</t>
+    <t>04</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>63303229.7287195</v>
+        <v>54904442.88473601</v>
       </c>
       <c r="D2">
-        <v>3275771.86552</v>
+        <v>4916191.27902</v>
       </c>
       <c r="E2">
-        <v>1.281181834291601</v>
+        <v>1.441414960777123</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -452,13 +452,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>33057993.37935202</v>
+        <v>109801629.7998483</v>
       </c>
       <c r="D3">
-        <v>767685.91084</v>
+        <v>2769415.33282</v>
       </c>
       <c r="E3">
-        <v>1.336798273424851</v>
+        <v>0.9799486658904722</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>22489580.95015856</v>
+        <v>57624233.76424972</v>
       </c>
       <c r="D4">
-        <v>1047140.12162</v>
+        <v>1438594.05174</v>
       </c>
       <c r="E4">
-        <v>1.236837999438199</v>
+        <v>1.523159627570231</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>49292733.54829281</v>
+        <v>28810823.46087405</v>
       </c>
       <c r="D5">
-        <v>847470.5890599999</v>
+        <v>1634572.39652</v>
       </c>
       <c r="E5">
-        <v>0.8800873101302531</v>
+        <v>1.158690414456993</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -512,13 +512,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>12582444.55397776</v>
+        <v>55186284.18348542</v>
       </c>
       <c r="D6">
-        <v>800985.55204</v>
+        <v>1476738.17576</v>
       </c>
       <c r="E6">
-        <v>1.268947678775149</v>
+        <v>0.9078767748424841</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>17570049.75563476</v>
+        <v>23824431.61870993</v>
       </c>
       <c r="D7">
-        <v>662384.68482</v>
+        <v>1282294.05184</v>
       </c>
       <c r="E7">
-        <v>1.217097668433874</v>
+        <v>1.228160930921552</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2376132.64995402</v>
+        <v>-10172382.21231307</v>
       </c>
       <c r="D8">
-        <v>1136381.98932</v>
+        <v>2104432.26588</v>
       </c>
       <c r="E8">
-        <v>1.092311762440836</v>
+        <v>1.174323303466445</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -572,13 +572,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>18358119.13038474</v>
+        <v>228841.5152213005</v>
       </c>
       <c r="D9">
-        <v>703320.2784</v>
+        <v>1884895.90192</v>
       </c>
       <c r="E9">
-        <v>0.9352270645310105</v>
+        <v>1.102514281150167</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -592,13 +592,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>923021.7282778802</v>
+        <v>47687260.25780322</v>
       </c>
       <c r="D10">
-        <v>562752.0350200001</v>
+        <v>935241.62732</v>
       </c>
       <c r="E10">
-        <v>1.16020004155833</v>
+        <v>0.9484291198433984</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -612,13 +612,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>3048690.84205608</v>
+        <v>34121681.32033244</v>
       </c>
       <c r="D11">
-        <v>886825.22572</v>
+        <v>1267508.1595</v>
       </c>
       <c r="E11">
-        <v>0.9711389855607241</v>
+        <v>0.9522937743631077</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -632,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>2007927.16253755</v>
+        <v>37430455.41817525</v>
       </c>
       <c r="D12">
-        <v>852254.057</v>
+        <v>965686.28654</v>
       </c>
       <c r="E12">
-        <v>0.9388833051110395</v>
+        <v>0.8430870143537528</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -652,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>12174494.31248722</v>
+        <v>20749690.88899646</v>
       </c>
       <c r="D13">
-        <v>589444.6011399999</v>
+        <v>1356095.4354</v>
       </c>
       <c r="E13">
-        <v>0.8569143934905148</v>
+        <v>0.859518490876338</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -672,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>2718332.15866442</v>
+        <v>7290396.814841591</v>
       </c>
       <c r="D14">
-        <v>689008.5508600001</v>
+        <v>935715.37002</v>
       </c>
       <c r="E14">
-        <v>0.9072904205084488</v>
+        <v>1.119558921659472</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -692,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>11605994.87487922</v>
+        <v>10411333.51356623</v>
       </c>
       <c r="D15">
-        <v>492715.4778000001</v>
+        <v>1226591.19306</v>
       </c>
       <c r="E15">
-        <v>0.7679303640540924</v>
+        <v>0.9547753342179568</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -712,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>-1644378.0951156</v>
+        <v>14895519.52323601</v>
       </c>
       <c r="D16">
-        <v>705348.57522</v>
+        <v>1182541.08422</v>
       </c>
       <c r="E16">
-        <v>0.8430370277030449</v>
+        <v>0.8062456182514426</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -732,13 +732,13 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>3656973.491225811</v>
+        <v>10302453.89185224</v>
       </c>
       <c r="D17">
-        <v>678296.50384</v>
+        <v>692688.3306</v>
       </c>
       <c r="E17">
-        <v>0.6824765571747432</v>
+        <v>0.9320267357355804</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -752,13 +752,13 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>18594101.36200559</v>
+        <v>16902519.19136247</v>
       </c>
       <c r="D18">
-        <v>417496.6486</v>
+        <v>1147868.86432</v>
       </c>
       <c r="E18">
-        <v>0.5219717867545001</v>
+        <v>0.6898937542231858</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -772,13 +772,13 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>-5540950.23888026</v>
+        <v>11591330.31633615</v>
       </c>
       <c r="D19">
-        <v>530383.5872600001</v>
+        <v>840533.7106999999</v>
       </c>
       <c r="E19">
-        <v>0.8037145936540587</v>
+        <v>0.7787077995840807</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>17878306.89121757</v>
+        <v>-4608965.246811761</v>
       </c>
       <c r="D20">
-        <v>687986.74792</v>
+        <v>963970.87746</v>
       </c>
       <c r="E20">
-        <v>0.3645457924956545</v>
+        <v>0.8815726360533715</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -812,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>-7047696.741961029</v>
+        <v>30621114.62943282</v>
       </c>
       <c r="D21">
-        <v>669681.5141199999</v>
+        <v>768700.7066</v>
       </c>
       <c r="E21">
-        <v>0.691801397492564</v>
+        <v>0.5842184286230632</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -832,13 +832,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>9829478.399872379</v>
+        <v>6344207.12351338</v>
       </c>
       <c r="D22">
-        <v>271197.93388</v>
+        <v>543723.804</v>
       </c>
       <c r="E22">
-        <v>0.6142858353691709</v>
+        <v>0.8433597781537625</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>17507978.13776451</v>
+        <v>-857779.8791073892</v>
       </c>
       <c r="D23">
-        <v>306593.28812</v>
+        <v>1110586.54854</v>
       </c>
       <c r="E23">
-        <v>0.3826870690142942</v>
+        <v>0.6805003090365139</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -872,13 +872,13 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>-765300.8262795901</v>
+        <v>43332372.49929188</v>
       </c>
       <c r="D24">
-        <v>231882.90282</v>
+        <v>491108.81272</v>
       </c>
       <c r="E24">
-        <v>0.5900174693266004</v>
+        <v>0.367835954270922</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -892,13 +892,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-373704.4699765402</v>
+        <v>17367971.81791998</v>
       </c>
       <c r="D25">
-        <v>198030.4687</v>
+        <v>461501.41718</v>
       </c>
       <c r="E25">
-        <v>0.5864723462208049</v>
+        <v>0.60198198544091</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -906,19 +906,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>13489145.32044723</v>
+        <v>2055780.74349898</v>
       </c>
       <c r="D26">
-        <v>291185.97098</v>
+        <v>568510.44366</v>
       </c>
       <c r="E26">
-        <v>2.637366192018744</v>
+        <v>0.5872519416546054</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -926,19 +926,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>14712909.7018976</v>
+        <v>-8041796.29759849</v>
       </c>
       <c r="D27">
-        <v>227594.5552</v>
+        <v>389922.0601199999</v>
       </c>
       <c r="E27">
-        <v>2.196524907744539</v>
+        <v>0.5453278836662268</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -946,19 +946,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>8728495.87136304</v>
+        <v>50428258.99956516</v>
       </c>
       <c r="D28">
-        <v>467867.71326</v>
+        <v>388044.55502</v>
       </c>
       <c r="E28">
-        <v>2.07228384523996</v>
+        <v>0.7805039718693435</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -966,19 +966,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>8044225.185109761</v>
+        <v>14881359.94740877</v>
       </c>
       <c r="D29">
-        <v>369050.6434</v>
+        <v>567706.9974</v>
       </c>
       <c r="E29">
-        <v>2.305369189268528</v>
+        <v>2.946962431534925</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -986,19 +986,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>18935814.65270587</v>
+        <v>19289677.25659551</v>
       </c>
       <c r="D30">
-        <v>213602.15592</v>
+        <v>462623.50288</v>
       </c>
       <c r="E30">
-        <v>1.024070404013766</v>
+        <v>2.449473713384242</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1006,19 +1006,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>11584108.82866268</v>
+        <v>17821958.75340096</v>
       </c>
       <c r="D31">
-        <v>354293.08962</v>
+        <v>752755.8963199999</v>
       </c>
       <c r="E31">
-        <v>1.389003578219574</v>
+        <v>1.04518183226031</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1026,19 +1026,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>18520005.68719498</v>
+        <v>17389894.66823472</v>
       </c>
       <c r="D32">
-        <v>99889.14922000001</v>
+        <v>601974.34822</v>
       </c>
       <c r="E32">
-        <v>0.6067699386875021</v>
+        <v>1.371123632795925</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1046,19 +1046,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>6459462.04616967</v>
+        <v>21265658.02802385</v>
       </c>
       <c r="D33">
-        <v>209925.6487</v>
+        <v>497336.17912</v>
       </c>
       <c r="E33">
-        <v>1.888576360689048</v>
+        <v>1.282730058614502</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1066,19 +1066,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>13321037.68587219</v>
+        <v>29311309.40504006</v>
       </c>
       <c r="D34">
-        <v>261302.4395</v>
+        <v>337171.1499400001</v>
       </c>
       <c r="E34">
-        <v>0.6252908859790862</v>
+        <v>0.6206097721466605</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1086,19 +1086,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>3230205.070111</v>
+        <v>9500737.129592221</v>
       </c>
       <c r="D35">
-        <v>563658.91316</v>
+        <v>390893.9881</v>
       </c>
       <c r="E35">
-        <v>0.967702479031714</v>
+        <v>2.022931438502993</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1106,19 +1106,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>11726608.93054077</v>
+        <v>7581035.07848303</v>
       </c>
       <c r="D36">
-        <v>219184.0146</v>
+        <v>791362.04396</v>
       </c>
       <c r="E36">
-        <v>0.6232265304867465</v>
+        <v>0.9235102059214476</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1126,19 +1126,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>13309312.21676077</v>
+        <v>23403128.54645613</v>
       </c>
       <c r="D37">
-        <v>175375.28432</v>
+        <v>359083.15962</v>
       </c>
       <c r="E37">
-        <v>0.5079907880676259</v>
+        <v>0.6217530288335409</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -1146,19 +1146,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>9285544.95132879</v>
+        <v>25273556.58324477</v>
       </c>
       <c r="D38">
-        <v>187911.28502</v>
+        <v>189703.96642</v>
       </c>
       <c r="E38">
-        <v>0.9789345907970456</v>
+        <v>0.6431750797208554</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -1166,19 +1166,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>2893066.278962529</v>
+        <v>16885229.26033481</v>
       </c>
       <c r="D39">
-        <v>451719.01952</v>
+        <v>455106.6988</v>
       </c>
       <c r="E39">
-        <v>1.041676208851097</v>
+        <v>0.6490737378182172</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -1186,19 +1186,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>9389291.414561858</v>
+        <v>10359786.85431833</v>
       </c>
       <c r="D40">
-        <v>195878.37404</v>
+        <v>292471.86092</v>
       </c>
       <c r="E40">
-        <v>0.5802524143238259</v>
+        <v>1.266609623776776</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -1206,19 +1206,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>10368117.07472603</v>
+        <v>15765516.15055693</v>
       </c>
       <c r="D41">
-        <v>166296.50794</v>
+        <v>282251.19672</v>
       </c>
       <c r="E41">
-        <v>0.5137992268681636</v>
+        <v>0.8072651739291058</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>6532155.5659352</v>
+        <v>18631037.83970047</v>
       </c>
       <c r="D42">
-        <v>287135.7157</v>
+        <v>233817.45024</v>
       </c>
       <c r="E42">
-        <v>0.6712909982918009</v>
+        <v>0.4714185445489946</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -1246,19 +1246,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43">
-        <v>3366472.69200265</v>
+        <v>-3095999.65558566</v>
       </c>
       <c r="D43">
-        <v>210084.34216</v>
+        <v>579527.08702</v>
       </c>
       <c r="E43">
-        <v>1.357216084003457</v>
+        <v>1.387489421679715</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -1266,19 +1266,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>5028642.978653381</v>
+        <v>13906191.31055104</v>
       </c>
       <c r="D44">
-        <v>165808.15252</v>
+        <v>290867.3575</v>
       </c>
       <c r="E44">
-        <v>1.227389039688753</v>
+        <v>0.6555618926116032</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -1286,19 +1286,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>11042514.69594078</v>
+        <v>14170972.46613468</v>
       </c>
       <c r="D45">
-        <v>91586.87714</v>
+        <v>289662.33104</v>
       </c>
       <c r="E45">
-        <v>0.5770982673561647</v>
+        <v>0.6282999451948247</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -1306,19 +1306,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>7526034.4208702</v>
+        <v>10658938.40165307</v>
       </c>
       <c r="D46">
-        <v>164258.12834</v>
+        <v>379224.1988</v>
       </c>
       <c r="E46">
-        <v>0.6399281474590136</v>
+        <v>0.6871287277643074</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -1326,19 +1326,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>4733686.60881041</v>
+        <v>9124100.708764659</v>
       </c>
       <c r="D47">
-        <v>186535.7169</v>
+        <v>441108.442</v>
       </c>
       <c r="E47">
-        <v>0.8943122787531069</v>
+        <v>0.6395438908949818</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -1346,19 +1346,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48">
-        <v>6736799.783949031</v>
+        <v>7325858.75583776</v>
       </c>
       <c r="D48">
-        <v>109225.15632</v>
+        <v>323962.471</v>
       </c>
       <c r="E48">
-        <v>0.5157374107778677</v>
+        <v>0.9604162825111522</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -1366,19 +1366,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>7286188.88883882</v>
+        <v>3477619.418077669</v>
       </c>
       <c r="D49">
-        <v>92819.88252</v>
+        <v>338407.03666</v>
       </c>
       <c r="E49">
-        <v>0.3868985696623827</v>
+        <v>1.242454635243911</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -1386,19 +1386,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50">
-        <v>1558049.88885061</v>
+        <v>12479313.19083864</v>
       </c>
       <c r="D50">
-        <v>205142.12182</v>
+        <v>325578.7662</v>
       </c>
       <c r="E50">
-        <v>0.6896580695138294</v>
+        <v>0.5093072676929996</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -1406,19 +1406,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51">
-        <v>-704226.242735381</v>
+        <v>15764630.66995173</v>
       </c>
       <c r="D51">
-        <v>260413.7064</v>
+        <v>164823.21554</v>
       </c>
       <c r="E51">
-        <v>0.6792604578319507</v>
+        <v>0.5967404036295494</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>836083.8652552901</v>
+        <v>12511203.05493709</v>
       </c>
       <c r="D52">
-        <v>154801.3998</v>
+        <v>217422.94492</v>
       </c>
       <c r="E52">
-        <v>0.7712223963511916</v>
+        <v>0.6092485034685835</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -1446,19 +1446,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>4143099.60567513</v>
+        <v>7008661.51365073</v>
       </c>
       <c r="D53">
-        <v>83936.92606</v>
+        <v>374607.22544</v>
       </c>
       <c r="E53">
-        <v>0.4500874144749755</v>
+        <v>0.5231831149486834</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -1466,19 +1466,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54">
-        <v>3976125.41149299</v>
+        <v>1572669.07016713</v>
       </c>
       <c r="D54">
-        <v>70769.62826</v>
+        <v>430740.468</v>
       </c>
       <c r="E54">
-        <v>0.3938390845677787</v>
+        <v>0.6343891319344601</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -1486,19 +1486,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55">
-        <v>5279930.71633524</v>
+        <v>8665987.564542649</v>
       </c>
       <c r="D55">
-        <v>35479.8865</v>
+        <v>217332.10682</v>
       </c>
       <c r="E55">
-        <v>0.291967778511136</v>
+        <v>0.5187375025458654</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -1506,19 +1506,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56">
-        <v>4149778.7</v>
+        <v>11504705.35848458</v>
       </c>
       <c r="D56">
-        <v>27706.9516</v>
+        <v>135953.74686</v>
       </c>
       <c r="E56">
-        <v>0.4756464266271163</v>
+        <v>0.450874776301517</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -1526,19 +1526,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>2209599.94132416</v>
+        <v>4529659.74620419</v>
       </c>
       <c r="D57">
-        <v>119641.01602</v>
+        <v>321997.75934</v>
       </c>
       <c r="E57">
-        <v>0.3855031802806917</v>
+        <v>0.5442422568323078</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -1546,19 +1546,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58">
-        <v>-11057508.27716127</v>
+        <v>12276923.81343969</v>
       </c>
       <c r="D58">
-        <v>335682.26242</v>
+        <v>83691.8582</v>
       </c>
       <c r="E58">
-        <v>1.388123210010512</v>
+        <v>0.3610902870015671</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -1566,19 +1566,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59">
-        <v>-1229969.40815011</v>
+        <v>8476050.04423332</v>
       </c>
       <c r="D59">
-        <v>78800.70126</v>
+        <v>190274.10312</v>
       </c>
       <c r="E59">
-        <v>0.4909472150558225</v>
+        <v>0.3661757756574704</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -1586,19 +1586,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>-2481676.67788212</v>
+        <v>4195261.391691499</v>
       </c>
       <c r="D60">
-        <v>129026.83902</v>
+        <v>163362.48996</v>
       </c>
       <c r="E60">
-        <v>0.4739171006514957</v>
+        <v>0.51085437997031</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -1606,19 +1606,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61">
-        <v>-804941.7738056401</v>
+        <v>1644645.561051379</v>
       </c>
       <c r="D61">
-        <v>64610.4497</v>
+        <v>220571.34132</v>
       </c>
       <c r="E61">
-        <v>0.4053362160576021</v>
+        <v>0.4753186355902493</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -1626,19 +1626,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>-243026.2097009289</v>
+        <v>-2886390.542341</v>
       </c>
       <c r="D62">
-        <v>72033.93520000001</v>
+        <v>272398.63332</v>
       </c>
       <c r="E62">
-        <v>0.2474119719889419</v>
+        <v>0.5412741579524184</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>-1226534.26999444</v>
+        <v>3902612.02</v>
       </c>
       <c r="D63">
-        <v>32558.6648</v>
+        <v>43662.3695</v>
       </c>
       <c r="E63">
-        <v>0.3860615320491625</v>
+        <v>0.4143034887745745</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -1666,19 +1666,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64">
-        <v>880241.89218225</v>
+        <v>756563.476570321</v>
       </c>
       <c r="D64">
-        <v>3776.598</v>
+        <v>122871.9961</v>
       </c>
       <c r="E64">
-        <v>0.1067379392423933</v>
+        <v>0.2529747097295197</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>-1002613.8607675</v>
+        <v>3645698.0402038</v>
       </c>
       <c r="D65">
-        <v>2192.2898</v>
+        <v>11985.9506</v>
       </c>
       <c r="E65">
-        <v>0.05052962631710662</v>
+        <v>0.1748847343830862</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -1706,21 +1706,61 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>1739423.39797424</v>
+      </c>
+      <c r="D66">
+        <v>9265.211799999999</v>
+      </c>
+      <c r="E66">
+        <v>0.1383334866232794</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>-2337776.25999444</v>
+      </c>
+      <c r="D67">
+        <v>48918.7068</v>
+      </c>
+      <c r="E67">
+        <v>0.3632180725979132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
         <v>41</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66">
-        <v>-9207653.78175604</v>
-      </c>
-      <c r="D66">
-        <v>112163.23242</v>
-      </c>
-      <c r="E66">
-        <v>0.4578292354805442</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>-5969315.935182809</v>
+      </c>
+      <c r="D68">
+        <v>97542.36040000001</v>
+      </c>
+      <c r="E68">
+        <v>0.3614980787537367</v>
+      </c>
+      <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Base_Simulador.xlsx
+++ b/Base_Simulador.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="9">
   <si>
     <t>KPI1</t>
   </si>
@@ -40,7 +40,7 @@
     <t>S10</t>
   </si>
   <si>
-    <t>04</t>
+    <t>06</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>54904442.88473601</v>
+        <v>101569246.5502345</v>
       </c>
       <c r="D2">
-        <v>4916191.27902</v>
+        <v>7206801.20512</v>
       </c>
       <c r="E2">
-        <v>1.441414960777123</v>
+        <v>1.366675959485567</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -452,13 +452,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>109801629.7998483</v>
+        <v>87236072.01747407</v>
       </c>
       <c r="D3">
-        <v>2769415.33282</v>
+        <v>3633260.2044</v>
       </c>
       <c r="E3">
-        <v>0.9799486658904722</v>
+        <v>1.462143099344549</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>57624233.76424972</v>
+        <v>95948978.46526533</v>
       </c>
       <c r="D4">
-        <v>1438594.05174</v>
+        <v>4746785.13102</v>
       </c>
       <c r="E4">
-        <v>1.523159627570231</v>
+        <v>1.037709574932674</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>28810823.46087405</v>
+        <v>77568387.73324643</v>
       </c>
       <c r="D5">
-        <v>1634572.39652</v>
+        <v>2030920.21564</v>
       </c>
       <c r="E5">
-        <v>1.158690414456993</v>
+        <v>1.488837484869003</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -512,13 +512,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>55186284.18348542</v>
+        <v>48462412.3448878</v>
       </c>
       <c r="D6">
-        <v>1476738.17576</v>
+        <v>2018019.52164544</v>
       </c>
       <c r="E6">
-        <v>0.9078767748424841</v>
+        <v>1.456440796189027</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>23824431.61870993</v>
+        <v>59540395.77985824</v>
       </c>
       <c r="D7">
-        <v>1282294.05184</v>
+        <v>2366549.02312</v>
       </c>
       <c r="E7">
-        <v>1.228160930921552</v>
+        <v>1.202453419361225</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-10172382.21231307</v>
+        <v>43177994.96584897</v>
       </c>
       <c r="D8">
-        <v>2104432.26588</v>
+        <v>2120344.79881</v>
       </c>
       <c r="E8">
-        <v>1.174323303466445</v>
+        <v>0.9078626694111959</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -572,13 +572,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>228841.5152213005</v>
+        <v>59431790.00756488</v>
       </c>
       <c r="D9">
-        <v>1884895.90192</v>
+        <v>1301762.55662</v>
       </c>
       <c r="E9">
-        <v>1.102514281150167</v>
+        <v>0.926101160979782</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -592,13 +592,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>47687260.25780322</v>
+        <v>4826430.0509402</v>
       </c>
       <c r="D10">
-        <v>935241.62732</v>
+        <v>2653184.13132</v>
       </c>
       <c r="E10">
-        <v>0.9484291198433984</v>
+        <v>1.130097383113114</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -612,13 +612,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>34121681.32033244</v>
+        <v>51134306.16806974</v>
       </c>
       <c r="D11">
-        <v>1267508.1595</v>
+        <v>1407249.323434</v>
       </c>
       <c r="E11">
-        <v>0.9522937743631077</v>
+        <v>0.9337863818131745</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -632,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>37430455.41817525</v>
+        <v>-10170402.95565435</v>
       </c>
       <c r="D12">
-        <v>965686.28654</v>
+        <v>3040265.03473</v>
       </c>
       <c r="E12">
-        <v>0.8430870143537528</v>
+        <v>1.143487026240222</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -652,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>20749690.88899646</v>
+        <v>30715111.92062659</v>
       </c>
       <c r="D13">
-        <v>1356095.4354</v>
+        <v>1833788.9112</v>
       </c>
       <c r="E13">
-        <v>0.859518490876338</v>
+        <v>0.9420767516761449</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -672,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>7290396.814841591</v>
+        <v>47654149.09059508</v>
       </c>
       <c r="D14">
-        <v>935715.37002</v>
+        <v>1395326.96756</v>
       </c>
       <c r="E14">
-        <v>1.119558921659472</v>
+        <v>0.8630815958682247</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -692,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>10411333.51356623</v>
+        <v>32189486.36931419</v>
       </c>
       <c r="D15">
-        <v>1226591.19306</v>
+        <v>1891287.0828</v>
       </c>
       <c r="E15">
-        <v>0.9547753342179568</v>
+        <v>0.8355236012628092</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -712,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>14895519.52323601</v>
+        <v>10148586.50636389</v>
       </c>
       <c r="D16">
-        <v>1182541.08422</v>
+        <v>1312714.81852</v>
       </c>
       <c r="E16">
-        <v>0.8062456182514426</v>
+        <v>1.090852674566722</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -732,13 +732,13 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>10302453.89185224</v>
+        <v>31128732.62121188</v>
       </c>
       <c r="D17">
-        <v>692688.3306</v>
+        <v>1557864.68116</v>
       </c>
       <c r="E17">
-        <v>0.9320267357355804</v>
+        <v>0.8196627499752638</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -752,13 +752,13 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>16902519.19136247</v>
+        <v>12824981.95018766</v>
       </c>
       <c r="D18">
-        <v>1147868.86432</v>
+        <v>1897010.66847</v>
       </c>
       <c r="E18">
-        <v>0.6898937542231858</v>
+        <v>0.860544917434889</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -772,13 +772,13 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>11591330.31633615</v>
+        <v>17525432.03259195</v>
       </c>
       <c r="D19">
-        <v>840533.7106999999</v>
+        <v>959253.153</v>
       </c>
       <c r="E19">
-        <v>0.7787077995840807</v>
+        <v>0.9311429194536048</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>-4608965.246811761</v>
+        <v>10138353.19954907</v>
       </c>
       <c r="D20">
-        <v>963970.87746</v>
+        <v>1019316.4289</v>
       </c>
       <c r="E20">
-        <v>0.8815726360533715</v>
+        <v>0.9763913715290669</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -812,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>30621114.62943282</v>
+        <v>36915700.20834769</v>
       </c>
       <c r="D21">
-        <v>768700.7066</v>
+        <v>1187088.7797</v>
       </c>
       <c r="E21">
-        <v>0.5842184286230632</v>
+        <v>0.6345758079854164</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -832,13 +832,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>6344207.12351338</v>
+        <v>14259638.12062173</v>
       </c>
       <c r="D22">
-        <v>543723.804</v>
+        <v>1402247.7897</v>
       </c>
       <c r="E22">
-        <v>0.8433597781537625</v>
+        <v>0.5698216051095697</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>-857779.8791073892</v>
+        <v>45501201.21219005</v>
       </c>
       <c r="D23">
-        <v>1110586.54854</v>
+        <v>702146.4481200001</v>
       </c>
       <c r="E23">
-        <v>0.6805003090365139</v>
+        <v>0.3735906521590536</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -872,13 +872,13 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>43332372.49929188</v>
+        <v>14185498.24857405</v>
       </c>
       <c r="D24">
-        <v>491108.81272</v>
+        <v>693427.49708</v>
       </c>
       <c r="E24">
-        <v>0.367835954270922</v>
+        <v>0.6304832796819499</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -892,13 +892,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>17367971.81791998</v>
+        <v>9083686.106569689</v>
       </c>
       <c r="D25">
-        <v>461501.41718</v>
+        <v>774923.28186</v>
       </c>
       <c r="E25">
-        <v>0.60198198544091</v>
+        <v>0.5992860481582858</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -912,13 +912,13 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>2055780.74349898</v>
+        <v>-12784761.68800459</v>
       </c>
       <c r="D26">
-        <v>568510.44366</v>
+        <v>641200.57802</v>
       </c>
       <c r="E26">
-        <v>0.5872519416546054</v>
+        <v>0.6204345904950651</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -926,19 +926,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>-8041796.29759849</v>
+        <v>26542670.88000769</v>
       </c>
       <c r="D27">
-        <v>389922.0601199999</v>
+        <v>769419.1107</v>
       </c>
       <c r="E27">
-        <v>0.5453278836662268</v>
+        <v>3.191242742625486</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -946,19 +946,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>50428258.99956516</v>
+        <v>26863160.16077508</v>
       </c>
       <c r="D28">
-        <v>388044.55502</v>
+        <v>747268.5284800001</v>
       </c>
       <c r="E28">
-        <v>0.7805039718693435</v>
+        <v>2.847066246813667</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -966,19 +966,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>14881359.94740877</v>
+        <v>54657789.67202704</v>
       </c>
       <c r="D29">
-        <v>567706.9974</v>
+        <v>605714.9092199999</v>
       </c>
       <c r="E29">
-        <v>2.946962431534925</v>
+        <v>0.8503256754321052</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -986,19 +986,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>19289677.25659551</v>
+        <v>33261453.22059761</v>
       </c>
       <c r="D30">
-        <v>462623.50288</v>
+        <v>782482.1428200001</v>
       </c>
       <c r="E30">
-        <v>2.449473713384242</v>
+        <v>1.344368799632863</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1006,19 +1006,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>17821958.75340096</v>
+        <v>40451807.23582366</v>
       </c>
       <c r="D31">
-        <v>752755.8963199999</v>
+        <v>600996.9079200003</v>
       </c>
       <c r="E31">
-        <v>1.04518183226031</v>
+        <v>1.17596740707768</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1026,19 +1026,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>17389894.66823472</v>
+        <v>23483837.10440544</v>
       </c>
       <c r="D32">
-        <v>601974.34822</v>
+        <v>781771.34826</v>
       </c>
       <c r="E32">
-        <v>1.371123632795925</v>
+        <v>1.66660941240297</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1046,19 +1046,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>21265658.02802385</v>
+        <v>22016171.23188739</v>
       </c>
       <c r="D33">
-        <v>497336.17912</v>
+        <v>1151776.00402</v>
       </c>
       <c r="E33">
-        <v>1.282730058614502</v>
+        <v>1.141541214794714</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1066,19 +1066,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>29311309.40504006</v>
+        <v>16271326.86671865</v>
       </c>
       <c r="D34">
-        <v>337171.1499400001</v>
+        <v>589499.5784999999</v>
       </c>
       <c r="E34">
-        <v>0.6206097721466605</v>
+        <v>2.099510591380004</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1086,19 +1086,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>9500737.129592221</v>
+        <v>19975538.83936026</v>
       </c>
       <c r="D35">
-        <v>390893.9881</v>
+        <v>1389612.78778</v>
       </c>
       <c r="E35">
-        <v>2.022931438502993</v>
+        <v>0.7346732309991045</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1106,19 +1106,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>7581035.07848303</v>
+        <v>16557030.48318237</v>
       </c>
       <c r="D36">
-        <v>791362.04396</v>
+        <v>855604.79852</v>
       </c>
       <c r="E36">
-        <v>0.9235102059214476</v>
+        <v>1.423877625177833</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1126,19 +1126,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>23403128.54645613</v>
+        <v>22018337.94781393</v>
       </c>
       <c r="D37">
-        <v>359083.15962</v>
+        <v>799337.14812</v>
       </c>
       <c r="E37">
-        <v>0.6217530288335409</v>
+        <v>1.249618208972856</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -1146,19 +1146,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>25273556.58324477</v>
+        <v>34862207.72463124</v>
       </c>
       <c r="D38">
-        <v>189703.96642</v>
+        <v>382291.01972</v>
       </c>
       <c r="E38">
-        <v>0.6431750797208554</v>
+        <v>0.751735693544634</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -1166,19 +1166,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>16885229.26033481</v>
+        <v>32602822.8805569</v>
       </c>
       <c r="D39">
-        <v>455106.6988</v>
+        <v>489983.61024</v>
       </c>
       <c r="E39">
-        <v>0.6490737378182172</v>
+        <v>0.6179882213424525</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -1186,19 +1186,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>10359786.85431833</v>
+        <v>32902442.84235395</v>
       </c>
       <c r="D40">
-        <v>292471.86092</v>
+        <v>431507.01764</v>
       </c>
       <c r="E40">
-        <v>1.266609623776776</v>
+        <v>0.6404963647410389</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -1206,19 +1206,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>15765516.15055693</v>
+        <v>6890607.85068102</v>
       </c>
       <c r="D41">
-        <v>282251.19672</v>
+        <v>576438.2320600001</v>
       </c>
       <c r="E41">
-        <v>0.8072651739291058</v>
+        <v>1.507140313174606</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>18631037.83970047</v>
+        <v>24880781.88980267</v>
       </c>
       <c r="D42">
-        <v>233817.45024</v>
+        <v>607542.029207</v>
       </c>
       <c r="E42">
-        <v>0.4714185445489946</v>
+        <v>0.6112454040259555</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -1246,19 +1246,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43">
-        <v>-3095999.65558566</v>
+        <v>16593376.77332992</v>
       </c>
       <c r="D43">
-        <v>579527.08702</v>
+        <v>660826.5999</v>
       </c>
       <c r="E43">
-        <v>1.387489421679715</v>
+        <v>0.8844198437026223</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -1266,19 +1266,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>13906191.31055104</v>
+        <v>30473798.14090231</v>
       </c>
       <c r="D44">
-        <v>290867.3575</v>
+        <v>312997.35002</v>
       </c>
       <c r="E44">
-        <v>0.6555618926116032</v>
+        <v>0.7274899963029993</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -1286,19 +1286,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45">
-        <v>14170972.46613468</v>
+        <v>26353603.95572889</v>
       </c>
       <c r="D45">
-        <v>289662.33104</v>
+        <v>488591.41102</v>
       </c>
       <c r="E45">
-        <v>0.6282999451948247</v>
+        <v>0.575011241325782</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -1306,19 +1306,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46">
-        <v>10658938.40165307</v>
+        <v>11654206.61308833</v>
       </c>
       <c r="D46">
-        <v>379224.1988</v>
+        <v>433174.00942</v>
       </c>
       <c r="E46">
-        <v>0.6871287277643074</v>
+        <v>1.313097135174493</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -1326,19 +1326,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47">
-        <v>9124100.708764659</v>
+        <v>27170660.93738962</v>
       </c>
       <c r="D47">
-        <v>441108.442</v>
+        <v>465689.5730900001</v>
       </c>
       <c r="E47">
-        <v>0.6395438908949818</v>
+        <v>0.5469340660614127</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -1346,19 +1346,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48">
-        <v>7325858.75583776</v>
+        <v>23025223.45897517</v>
       </c>
       <c r="D48">
-        <v>323962.471</v>
+        <v>454127.4718</v>
       </c>
       <c r="E48">
-        <v>0.9604162825111522</v>
+        <v>0.6853814129538811</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -1366,19 +1366,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>3477619.418077669</v>
+        <v>15302769.09599295</v>
       </c>
       <c r="D49">
-        <v>338407.03666</v>
+        <v>512605.0279</v>
       </c>
       <c r="E49">
-        <v>1.242454635243911</v>
+        <v>0.6906347330383822</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -1386,19 +1386,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50">
-        <v>12479313.19083864</v>
+        <v>19102949.00256362</v>
       </c>
       <c r="D50">
-        <v>325578.7662</v>
+        <v>275879.18374</v>
       </c>
       <c r="E50">
-        <v>0.5093072676929996</v>
+        <v>0.6982875348225234</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -1406,19 +1406,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51">
-        <v>15764630.66995173</v>
+        <v>16162310.64000443</v>
       </c>
       <c r="D51">
-        <v>164823.21554</v>
+        <v>359705.24542</v>
       </c>
       <c r="E51">
-        <v>0.5967404036295494</v>
+        <v>0.7012995115652533</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52">
-        <v>12511203.05493709</v>
+        <v>15135437.79271937</v>
       </c>
       <c r="D52">
-        <v>217422.94492</v>
+        <v>494249.1904</v>
       </c>
       <c r="E52">
-        <v>0.6092485034685835</v>
+        <v>0.5372226320183138</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -1446,19 +1446,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>7008661.51365073</v>
+        <v>9633276.53347322</v>
       </c>
       <c r="D53">
-        <v>374607.22544</v>
+        <v>428339.8689999999</v>
       </c>
       <c r="E53">
-        <v>0.5231831149486834</v>
+        <v>0.8823834537398308</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -1466,19 +1466,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1572669.07016713</v>
+        <v>14436582.02388042</v>
       </c>
       <c r="D54">
-        <v>430740.468</v>
+        <v>373168.78692</v>
       </c>
       <c r="E54">
-        <v>0.6343891319344601</v>
+        <v>0.6052076179337557</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -1486,19 +1486,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55">
-        <v>8665987.564542649</v>
+        <v>10881939.49524516</v>
       </c>
       <c r="D55">
-        <v>217332.10682</v>
+        <v>532035.56014</v>
       </c>
       <c r="E55">
-        <v>0.5187375025458654</v>
+        <v>0.5152195678343748</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -1506,19 +1506,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56">
-        <v>11504705.35848458</v>
+        <v>16891072.72724064</v>
       </c>
       <c r="D56">
-        <v>135953.74686</v>
+        <v>349005.30574</v>
       </c>
       <c r="E56">
-        <v>0.450874776301517</v>
+        <v>0.4938679500352788</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -1526,19 +1526,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>4529659.74620419</v>
+        <v>17664683.52038018</v>
       </c>
       <c r="D57">
-        <v>321997.75934</v>
+        <v>242935.71436</v>
       </c>
       <c r="E57">
-        <v>0.5442422568323078</v>
+        <v>0.5688210408759582</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -1546,19 +1546,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58">
-        <v>12276923.81343969</v>
+        <v>7332175.348276719</v>
       </c>
       <c r="D58">
-        <v>83691.8582</v>
+        <v>225868.1937</v>
       </c>
       <c r="E58">
-        <v>0.3610902870015671</v>
+        <v>0.6959823477383837</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -1566,19 +1566,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59">
-        <v>8476050.04423332</v>
+        <v>15620589.89739554</v>
       </c>
       <c r="D59">
-        <v>190274.10312</v>
+        <v>136348.8232</v>
       </c>
       <c r="E59">
-        <v>0.3661757756574704</v>
+        <v>0.3896675460191109</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -1586,19 +1586,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60">
-        <v>4195261.391691499</v>
+        <v>6801748.173378609</v>
       </c>
       <c r="D60">
-        <v>163362.48996</v>
+        <v>256038.26206</v>
       </c>
       <c r="E60">
-        <v>0.51085437997031</v>
+        <v>0.5533562173375124</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -1606,19 +1606,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61">
-        <v>1644645.561051379</v>
+        <v>2271460.547622759</v>
       </c>
       <c r="D61">
-        <v>220571.34132</v>
+        <v>348562.8636199999</v>
       </c>
       <c r="E61">
-        <v>0.4753186355902493</v>
+        <v>0.529449592389706</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -1626,19 +1626,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>-2886390.542341</v>
+        <v>-1912595.41274448</v>
       </c>
       <c r="D62">
-        <v>272398.63332</v>
+        <v>433823.60502</v>
       </c>
       <c r="E62">
-        <v>0.5412741579524184</v>
+        <v>0.5596267735315631</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>3902612.02</v>
+        <v>7095733.108376749</v>
       </c>
       <c r="D63">
-        <v>43662.3695</v>
+        <v>257849.6033</v>
       </c>
       <c r="E63">
-        <v>0.4143034887745745</v>
+        <v>0.1934343925783419</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -1666,19 +1666,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64">
-        <v>756563.476570321</v>
+        <v>4604618.77657032</v>
       </c>
       <c r="D64">
-        <v>122871.9961</v>
+        <v>209987.0277999999</v>
       </c>
       <c r="E64">
-        <v>0.2529747097295197</v>
+        <v>0.3116632648269851</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>3645698.0402038</v>
+        <v>4074542.94907683</v>
       </c>
       <c r="D65">
-        <v>11985.9506</v>
+        <v>72532.7797</v>
       </c>
       <c r="E65">
-        <v>0.1748847343830862</v>
+        <v>0.4836390582687427</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -1706,19 +1706,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1739423.39797424</v>
+        <v>-1675581.414556349</v>
       </c>
       <c r="D66">
-        <v>9265.211799999999</v>
+        <v>154085.9204</v>
       </c>
       <c r="E66">
-        <v>0.1383334866232794</v>
+        <v>0.4176810465835201</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -1726,19 +1726,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67">
-        <v>-2337776.25999444</v>
+        <v>5127252.67381532</v>
       </c>
       <c r="D67">
-        <v>48918.7068</v>
+        <v>20757.9128</v>
       </c>
       <c r="E67">
-        <v>0.3632180725979132</v>
+        <v>0.207209917913166</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -1746,21 +1746,41 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68">
-        <v>-5969315.935182809</v>
+        <v>-3307899.60999444</v>
       </c>
       <c r="D68">
-        <v>97542.36040000001</v>
+        <v>55087.98970000001</v>
       </c>
       <c r="E68">
-        <v>0.3614980787537367</v>
+        <v>0.2787077358269331</v>
       </c>
       <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>-54574388.53764745</v>
+      </c>
+      <c r="D69">
+        <v>571782.8176600001</v>
+      </c>
+      <c r="E69">
+        <v>0.5751117753267292</v>
+      </c>
+      <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
